--- a/Slides/Planning and Sourcing/Data Analysis - Lecture 2.xlsx
+++ b/Slides/Planning and Sourcing/Data Analysis - Lecture 2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtc4455\Documents\IMSE 802 Supply Chain Operations and Decision Making\Lecture Slides\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7380" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Moving Average and Weighted " sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
     <sheet name="Regression Analysis" sheetId="3" r:id="rId3"/>
     <sheet name="EOQ" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Month</t>
   </si>
@@ -187,13 +185,17 @@
   <si>
     <t>EOQ (rounded)</t>
   </si>
+  <si>
+    <t>This time = Last time + alpha * (difference of last time actual and predicted) 
+Alpha --&gt; how much you want to stress that difference, I.e., smoothing constant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -226,12 +228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -244,16 +252,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,7 +270,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,10 +278,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -281,19 +289,12 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -327,10 +328,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -351,7 +362,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -398,26 +409,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -497,28 +488,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1325</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305</c:v>
+                  <c:v>1305.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1275</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1210</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1195</c:v>
+                  <c:v>1195.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CDB4-4AD3-808C-9405372BA6C4}"/>
             </c:ext>
@@ -596,13 +587,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1226.6666666666667</c:v>
+                  <c:v>1226.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CDB4-4AD3-808C-9405372BA6C4}"/>
             </c:ext>
@@ -680,13 +671,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1267.5999999999999</c:v>
+                  <c:v>1267.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CDB4-4AD3-808C-9405372BA6C4}"/>
             </c:ext>
@@ -700,11 +691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175018496"/>
-        <c:axId val="175019392"/>
+        <c:axId val="2074237480"/>
+        <c:axId val="2074231480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175018496"/>
+        <c:axId val="2074237480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +751,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175019392"/>
+        <c:crossAx val="2074231480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175019392"/>
+        <c:axId val="2074231480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175018496"/>
+        <c:crossAx val="2074237480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -903,7 +894,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -950,26 +941,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1049,28 +1020,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1325</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305</c:v>
+                  <c:v>1305.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1275</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1210</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1195</c:v>
+                  <c:v>1195.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40D7-4196-BB95-57A98639DAD8}"/>
             </c:ext>
@@ -1148,13 +1119,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1226.6666666666667</c:v>
+                  <c:v>1226.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-40D7-4196-BB95-57A98639DAD8}"/>
             </c:ext>
@@ -1238,7 +1209,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-40D7-4196-BB95-57A98639DAD8}"/>
             </c:ext>
@@ -1316,13 +1287,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>1267.5999999999999</c:v>
+                  <c:v>1267.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-40D7-4196-BB95-57A98639DAD8}"/>
             </c:ext>
@@ -1406,7 +1377,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-40D7-4196-BB95-57A98639DAD8}"/>
             </c:ext>
@@ -1420,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176502960"/>
-        <c:axId val="176502568"/>
+        <c:axId val="2074134840"/>
+        <c:axId val="2074128696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176502960"/>
+        <c:axId val="2074134840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,12 +1451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176502568"/>
+        <c:crossAx val="2074128696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176502568"/>
+        <c:axId val="2074128696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176502960"/>
+        <c:crossAx val="2074134840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1623,7 +1594,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1671,26 +1642,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1769,25 +1720,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1325</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305</c:v>
+                  <c:v>1305.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1275</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1210</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2DFB-4447-811C-0E8AA9D0F1F6}"/>
             </c:ext>
@@ -1864,10 +1815,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1370</c:v>
+                  <c:v>1370.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1361</c:v>
+                  <c:v>1361.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1359.4</c:v>
@@ -1879,13 +1830,13 @@
                   <c:v>1333.816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1309.0527999999999</c:v>
+                  <c:v>1309.0528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2DFB-4447-811C-0E8AA9D0F1F6}"/>
             </c:ext>
@@ -1962,10 +1913,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1370</c:v>
+                  <c:v>1370.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1334</c:v>
+                  <c:v>1334.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1349.2</c:v>
@@ -1983,7 +1934,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2DFB-4447-811C-0E8AA9D0F1F6}"/>
             </c:ext>
@@ -1999,11 +1950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176364576"/>
-        <c:axId val="176365752"/>
+        <c:axId val="2076538984"/>
+        <c:axId val="2076544696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176364576"/>
+        <c:axId val="2076538984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176365752"/>
+        <c:crossAx val="2076544696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176365752"/>
+        <c:axId val="2076544696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176364576"/>
+        <c:crossAx val="2076538984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,7 +2138,304 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exponential Smoothing'!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1325.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1353.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1305.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1275.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1210.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α = .2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exponential Smoothing'!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1361.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1359.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1348.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1333.816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1309.0528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α = .8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Exponential Smoothing'!$C$4:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Exponential Smoothing'!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1334.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1349.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1313.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1282.768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1224.5536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2082772104"/>
+        <c:axId val="2083424344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2082772104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2083424344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2083424344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082772104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2240,26 +2488,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2312,25 +2540,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,28 +2570,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1325</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1305</c:v>
+                  <c:v>1305.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1275</c:v>
+                  <c:v>1275.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1210</c:v>
+                  <c:v>1210.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1195</c:v>
+                  <c:v>1195.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A970-40FE-937E-3799C7108944}"/>
             </c:ext>
@@ -2414,25 +2642,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,31 +2672,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1356.3809523809523</c:v>
+                  <c:v>1356.380952380952</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1324.695238095238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1293.0095238095237</c:v>
+                  <c:v>1293.009523809524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1261.3238095238096</c:v>
+                  <c:v>1261.32380952381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1229.6380952380953</c:v>
+                  <c:v>1229.638095238095</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1197.952380952381</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1166.2666666666667</c:v>
+                  <c:v>1166.266666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A970-40FE-937E-3799C7108944}"/>
             </c:ext>
@@ -2482,11 +2710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127375056"/>
-        <c:axId val="281125584"/>
+        <c:axId val="2076596600"/>
+        <c:axId val="2076602520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127375056"/>
+        <c:axId val="2076596600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,12 +2771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281125584"/>
+        <c:crossAx val="2076602520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281125584"/>
+        <c:axId val="2076602520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127375056"/>
+        <c:crossAx val="2076596600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4994,6 +5222,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5118,7 +5376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5153,7 +5411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5330,7 +5588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5344,509 +5602,549 @@
       <selection activeCell="B3" sqref="B3:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="17.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="63" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:9" ht="60">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:9">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>1325</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>1353</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>1305</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>1275</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>1210</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>1195</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6">
         <f t="shared" ref="D10" si="0">AVERAGE(C7:C9)</f>
         <v>1226.6666666666667</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f>AVERAGE(C5:C9)</f>
         <v>1267.5999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="84" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:9" ht="80">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>1325</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>1353</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="11">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8">
         <v>0.1</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>1305</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8">
         <v>0.1</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>1275</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11">
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
         <v>0.2</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="11">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8">
         <v>0.2</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>1210</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11">
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
         <v>0.3</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="11">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8">
         <v>0.3</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>1195</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11">
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
         <v>0.5</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8">
         <v>0.3</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9">
+      <c r="C22" s="4"/>
+      <c r="D22" s="6">
         <f t="shared" ref="D22" si="1">AVERAGE(C19:C21)</f>
         <v>1226.6666666666667</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9">
+      <c r="E22" s="8"/>
+      <c r="F22" s="6">
         <f>SUMPRODUCT(C19:C21,E19:E21)</f>
         <v>1215.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <f>AVERAGE(C17:C21)</f>
         <v>1267.5999999999999</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9">
+      <c r="H22" s="4"/>
+      <c r="I22" s="6">
         <f>SUMPRODUCT(H17:H21,C17:C21)</f>
         <v>1242.3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="84" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:9" ht="80">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="2:9">
+      <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>1325</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>1353</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="2:9">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>1305</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>1275</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>1210</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="2:9">
+      <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>1195</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="2:9">
+      <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="10">
+      <c r="C31" s="3"/>
+      <c r="D31" s="7">
         <v>1226.6666666666667</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="7">
         <v>1215.5</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <v>1267.5999999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="7">
         <v>1242.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F9"/>
+  <dimension ref="C2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="6" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E2" s="7">
+    <row r="2" spans="3:6">
+      <c r="E2" s="4">
         <v>0.2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="3:6">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:6">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>1325</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="21">
         <v>1370</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="21">
         <v>1370</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="3:6">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>1353</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="22">
         <f>+E4+$E$2*(D4-E4)</f>
         <v>1361</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="22">
         <f>+F4+$F$2*(D4-F4)</f>
         <v>1334</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="3:6">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>1305</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="22">
         <f>+E5+$E$2*(D5-E5)</f>
         <v>1359.4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="22">
         <f>+F5+$F$2*(D5-F5)</f>
         <v>1349.2</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="3:6">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>1275</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="22">
         <f>+E6+$E$2*(D6-E6)</f>
         <v>1348.52</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="22">
         <f>+F6+$F$2*(D6-F6)</f>
         <v>1313.84</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="3:6">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>1210</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="22">
         <f>+E7+$E$2*(D7-E7)</f>
         <v>1333.816</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="22">
         <f>+F7+$F$2*(D7-F7)</f>
         <v>1282.768</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="3:6">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5">
+      <c r="D9" s="4"/>
+      <c r="E9" s="22">
         <f>+E8+$E$2*(D8-E8)</f>
         <v>1309.0527999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="22">
         <f>+F8+$F$2*(D8-F8)</f>
         <v>1224.5536</v>
       </c>
     </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5854,34 +6152,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="3" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="3:13" ht="20">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5891,313 +6189,318 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="3:13" ht="21" thickBot="1">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>1325</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="20">
         <f>+D6*$I$22+$I$21</f>
         <v>1356.3809523809523</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="3:13" ht="20">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>1353</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="20">
         <f t="shared" ref="F7:F12" si="0">+D7*$I$22+$I$21</f>
         <v>1324.695238095238</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="3:13" ht="20">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>1305</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>1293.0095238095237</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>0.93538771192899806</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="3:13" ht="20">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>1275</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>1261.3238095238096</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>0.87495017162776623</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="3:13" ht="20">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>1210</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>1229.6380952380953</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>0.8436877145347077</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="3:13" ht="20">
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>1195</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>1197.952380952381</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <v>25.055462288215534</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="3:13" ht="21" thickBot="1">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>1166.2666666666667</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="18"/>
+    <row r="14" spans="3:13" ht="21" thickBot="1">
+      <c r="C14" s="15"/>
       <c r="H14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
+    <row r="15" spans="3:13">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="14" t="s">
+    <row r="16" spans="3:13">
+      <c r="H16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <v>1</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <v>17569.728571428568</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="11">
         <v>17569.728571428568</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="11">
         <v>27.987249019592952</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="11">
         <v>6.1272516518931291E-3</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H17" s="14" t="s">
+    <row r="17" spans="8:16">
+      <c r="H17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>4</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <v>2511.1047619047631</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <v>627.77619047619078</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="15" t="s">
+    <row r="18" spans="8:16" ht="15" thickBot="1">
+      <c r="H18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>5</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>20080.833333333332</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="16"/>
-      <c r="I20" s="16" t="s">
+    <row r="19" spans="8:16" ht="15" thickBot="1"/>
+    <row r="20" spans="8:16">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H21" s="14" t="s">
+    <row r="21" spans="8:16">
+      <c r="H21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <v>1388.0666666666666</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="11">
         <v>23.325365986682797</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="11">
         <v>59.508891198498603</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="11">
         <v>4.7753661977815217E-7</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="11">
         <v>1323.305068445994</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="11">
         <v>1452.8282648873392</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="11">
         <v>1323.305068445994</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="11">
         <v>1452.8282648873392</v>
       </c>
     </row>
-    <row r="22" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="15" t="s">
+    <row r="22" spans="8:16" ht="15" thickBot="1">
+      <c r="H22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>-31.68571428571428</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <v>5.9894010693948392</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="12">
         <v>-5.2902976305301523</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="12">
         <v>6.1272516518931291E-3</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="12">
         <v>-48.314957567902013</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="12">
         <v>-15.05647100352655</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="12">
         <v>-48.314957567902013</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="12">
         <v>-15.05647100352655</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6205,37 +6508,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -6243,44 +6546,44 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="23">
         <f>SQRT((2*C12*C13)/(C15*C14))</f>
         <v>33.806170189140666</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <f>ROUND(C17,0)</f>
         <v>34</v>
       </c>
@@ -6288,5 +6591,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>